--- a/GII.xlsx
+++ b/GII.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamakarevich/UdacityProjects/suicide_rates_factors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01554EE5-8AEF-A142-85DD-9BE2CFC98F60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Arkusz2" sheetId="2" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -122,9 +131,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve">Brunei </t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
     <t>Democratic People's Republic of Korea</t>
   </si>
   <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>Dominica</t>
   </si>
   <si>
-    <t>Dominican Republik</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -356,9 +356,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t xml:space="preserve">Korea </t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -669,41 +663,72 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Brunei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -711,98 +736,384 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.57"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -822,58 +1133,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C2" s="7">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="D2" s="7">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="E2" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F2" s="7">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="C3" s="7">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7">
         <v>21.7</v>
       </c>
       <c r="F3" s="7">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="4" ht="30.0" customHeight="1">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="C4" s="7">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="D4" s="7">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="E4" s="7">
         <v>10.6</v>
@@ -882,18 +1193,18 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <v>7.1</v>
@@ -902,18 +1213,18 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C6" s="7">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7">
-        <v>477.0</v>
+        <v>477</v>
       </c>
       <c r="E6" s="7">
         <v>164.3</v>
@@ -922,38 +1233,38 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C7" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7">
         <v>44.8</v>
       </c>
       <c r="F7" s="7">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7">
         <v>63.8</v>
@@ -962,27 +1273,27 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="C9" s="7">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7">
         <v>54.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -990,10 +1301,10 @@
         <v>0.12</v>
       </c>
       <c r="C10" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <v>14.1</v>
@@ -1002,18 +1313,18 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="7">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C11" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
         <v>7.1</v>
@@ -1022,18 +1333,18 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C12" s="7">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7">
         <v>59.8</v>
@@ -1042,47 +1353,47 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C13" s="7">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E13" s="7">
         <v>29.6</v>
       </c>
       <c r="F13" s="7">
-        <v>69.4</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7">
-        <v>0.233</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="C14" s="7">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7">
         <v>13.5</v>
       </c>
       <c r="F14" s="7">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1090,50 +1401,50 @@
         <v>0.52</v>
       </c>
       <c r="C15" s="7">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E15" s="7">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F15" s="7">
         <v>43.1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="C16" s="7">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F16" s="7">
         <v>62.4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="7">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C17" s="7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <v>18.2</v>
@@ -1142,27 +1453,27 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C18" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F18" s="7">
         <v>48.2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1170,50 +1481,50 @@
         <v>0.375</v>
       </c>
       <c r="C19" s="7">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="F19" s="7">
         <v>56.3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="7">
-        <v>0.613</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="C20" s="7">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="E20" s="7">
         <v>83.2</v>
       </c>
       <c r="F20" s="7">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
-        <v>0.477</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C21" s="7">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="E21" s="7">
         <v>21.4</v>
@@ -1222,18 +1533,18 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="7">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C22" s="7">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="E22" s="7">
         <v>70.8</v>
@@ -1242,7 +1553,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1250,10 +1561,10 @@
         <v>0.158</v>
       </c>
       <c r="C23" s="7">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7">
         <v>8.6</v>
@@ -1262,7 +1573,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1270,110 +1581,110 @@
         <v>0.435</v>
       </c>
       <c r="C24" s="7">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E24" s="7">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F24" s="7">
-        <v>73.4</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C25" s="7">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F25" s="7">
         <v>56.3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.179</v>
-      </c>
-      <c r="C26" s="7">
-        <v>39.0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="B27" s="7">
         <v>0.223</v>
       </c>
       <c r="C27" s="7">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E27" s="7">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F27" s="7">
         <v>48.6</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="C28" s="7">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="D28" s="7">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="E28" s="7">
         <v>108.5</v>
       </c>
       <c r="F28" s="7">
-        <v>76.6</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
-        <v>0.474</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C29" s="7">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D29" s="7">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="E29" s="7">
         <v>28.3</v>
@@ -1382,38 +1693,38 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C30" s="7">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D30" s="7">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E30" s="7">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F30" s="7">
         <v>53.2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
-        <v>0.479</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C31" s="7">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="D31" s="7">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E31" s="7">
         <v>51.6</v>
@@ -1422,58 +1733,58 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7">
-        <v>0.568</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C32" s="7">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="D32" s="7">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="E32" s="7">
         <v>104.6</v>
       </c>
       <c r="F32" s="7">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="7">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C33" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D33" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F33" s="7">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="7">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C34" s="7">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="D34" s="7">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="E34" s="7">
         <v>91.9</v>
@@ -1482,38 +1793,38 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="7">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C35" s="7">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="D35" s="7">
-        <v>856.0</v>
+        <v>856</v>
       </c>
       <c r="E35" s="7">
         <v>133.5</v>
       </c>
       <c r="F35" s="7">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="7">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C36" s="7">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D36" s="7">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E36" s="7">
         <v>47.8</v>
@@ -1522,18 +1833,18 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C37" s="7">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E37" s="7">
         <v>7.3</v>
@@ -1542,18 +1853,18 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C38" s="7">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="D38" s="7">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E38" s="7">
         <v>50.2</v>
@@ -1562,58 +1873,58 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="7">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C39" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="D39" s="7">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="E39" s="7">
         <v>68.3</v>
       </c>
       <c r="F39" s="7">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="7">
-        <v>0.592</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C40" s="7">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="D40" s="7">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="E40" s="7">
         <v>117.7</v>
       </c>
       <c r="F40" s="7">
-        <v>67.1</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="7">
         <v>0.308</v>
       </c>
       <c r="C41" s="7">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D41" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E41" s="7">
         <v>56.5</v>
@@ -1622,18 +1933,18 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="7">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C42" s="7">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D42" s="7">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="E42" s="7">
         <v>135.5</v>
@@ -1642,18 +1953,18 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="7">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C43" s="7">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D43" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E43" s="7">
         <v>9.5</v>
@@ -1662,18 +1973,18 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="7">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C44" s="7">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="D44" s="7">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E44" s="7">
         <v>45.6</v>
@@ -1682,38 +1993,38 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="7">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C45" s="7">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D45" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="7">
         <v>57.5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="7">
         <v>0.129</v>
       </c>
       <c r="C46" s="7">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D46" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="7">
         <v>9.9</v>
@@ -1722,38 +2033,38 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C47" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D47" s="7">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E47" s="7">
         <v>0.5</v>
       </c>
       <c r="F47" s="7">
-        <v>73.6</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="B48" s="7">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C48" s="7">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="D48" s="7">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="E48" s="7">
         <v>122.6</v>
@@ -1762,38 +2073,38 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="7">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C49" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E49" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F49" s="7">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" s="7">
-        <v>0.477</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C50" s="7">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D50" s="7">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E50" s="7">
         <v>21.5</v>
@@ -1802,18 +2113,18 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" s="7">
         <v>0.47</v>
       </c>
       <c r="C51" s="7">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="D51" s="7">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E51" s="7">
         <v>97.9</v>
@@ -1822,18 +2133,18 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>74</v>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="B52" s="7">
         <v>0.47</v>
       </c>
       <c r="C52" s="7">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="D52" s="7">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E52" s="7">
         <v>97.9</v>
@@ -1842,38 +2153,38 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" s="7">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C53" s="7">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="D53" s="7">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E53" s="7">
-        <v>75.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F53" s="7">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="7">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="C54" s="7">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="D54" s="7">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E54" s="7">
         <v>51.9</v>
@@ -1882,18 +2193,18 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" s="7">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C55" s="7">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D55" s="7">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E55" s="7">
         <v>65.2</v>
@@ -1902,18 +2213,18 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" s="7">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C56" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="D56" s="7">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="E56" s="7">
         <v>108.7</v>
@@ -1922,18 +2233,18 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" s="7">
         <v>0.499</v>
       </c>
       <c r="C57" s="7">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D57" s="7">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="E57" s="7">
         <v>54.3</v>
@@ -1942,18 +2253,18 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" s="7">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C58" s="7">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D58" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E58" s="7">
         <v>13.1</v>
@@ -1962,18 +2273,18 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B59" s="7">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C59" s="7">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D59" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E59" s="7">
         <v>14.6</v>
@@ -1982,78 +2293,78 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60" s="7">
         <v>0.499</v>
       </c>
       <c r="C60" s="7">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D60" s="7">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E60" s="7">
         <v>58.4</v>
       </c>
       <c r="F60" s="7">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" s="7">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C61" s="7">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D61" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E61" s="7">
         <v>44.8</v>
       </c>
       <c r="F61" s="7">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B62" s="7">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C62" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D62" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E62" s="7">
         <v>6.5</v>
       </c>
       <c r="F62" s="7">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B63" s="7">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C63" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D63" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7">
         <v>8.9</v>
@@ -2062,18 +2373,18 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B64" s="7">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C64" s="7">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D64" s="7">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="E64" s="7">
         <v>99.9</v>
@@ -2082,58 +2393,58 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B65" s="7">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C65" s="7">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="D65" s="7">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="E65" s="7">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="F65" s="7">
         <v>72.2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B66" s="7">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C66" s="7">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D66" s="7">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E66" s="7">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F66" s="7">
         <v>57.3</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" s="7">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C67" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D67" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E67" s="7">
         <v>6.7</v>
@@ -2142,18 +2453,18 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="7">
-        <v>0.547</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C68" s="7">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="D68" s="7">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="E68" s="7">
         <v>66.8</v>
@@ -2162,18 +2473,18 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="7">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C69" s="7">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D69" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E69" s="7">
         <v>7.5</v>
@@ -2182,18 +2493,18 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B70" s="7">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C70" s="7">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D70" s="7">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E70" s="7">
         <v>30.5</v>
@@ -2202,18 +2513,18 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B71" s="7">
-        <v>0.494</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C71" s="7">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="D71" s="7">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E71" s="7">
         <v>80.7</v>
@@ -2222,18 +2533,18 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B72" s="7">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C72" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="D72" s="7">
-        <v>679.0</v>
+        <v>679</v>
       </c>
       <c r="E72" s="7">
         <v>140.6</v>
@@ -2242,18 +2553,18 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" s="7">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C73" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="D73" s="7">
-        <v>549.0</v>
+        <v>549</v>
       </c>
       <c r="E73" s="7">
         <v>89.5</v>
@@ -2262,78 +2573,78 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B74" s="7">
-        <v>0.508</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C74" s="7">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="D74" s="7">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E74" s="7">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F74" s="7">
         <v>41.8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" s="7">
-        <v>0.593</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C75" s="7">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="D75" s="7">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="E75" s="7">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F75" s="7">
         <v>61.5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B76" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C76" s="7">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D76" s="7">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E76" s="7">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F76" s="7">
         <v>47.2</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="7">
         <v>0.04</v>
       </c>
       <c r="C77" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="7">
         <v>3.2</v>
@@ -2342,38 +2653,38 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B78" s="7">
         <v>0.252</v>
       </c>
       <c r="C78" s="7">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D78" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E78" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="F78" s="7">
         <v>46.4</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B79" s="7">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C79" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D79" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E79" s="7">
         <v>6.1</v>
@@ -2382,18 +2693,18 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B80" s="7">
         <v>0.53</v>
       </c>
       <c r="C80" s="7">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="D80" s="7">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E80" s="7">
         <v>24.5</v>
@@ -2402,18 +2713,18 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B81" s="7">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="C81" s="7">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D81" s="7">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="E81" s="7">
         <v>49.6</v>
@@ -2422,18 +2733,18 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B82" s="7">
-        <v>0.509</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C82" s="7">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="D82" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E82" s="7">
         <v>26.7</v>
@@ -2442,38 +2753,38 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B83" s="7">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C83" s="7">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="D83" s="7">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E83" s="7">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F83" s="7">
         <v>15.1</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B84" s="7">
         <v>0.127</v>
       </c>
       <c r="C84" s="7">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D84" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E84" s="7">
         <v>10.4</v>
@@ -2482,58 +2793,58 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B85" s="7">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C85" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D85" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E85" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F85" s="7">
         <v>58.9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" s="7">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C86" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D86" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E86" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F86" s="7">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B87" s="7">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="C87" s="7">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="D87" s="7">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E87" s="7">
         <v>59.7</v>
@@ -2542,38 +2853,38 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B88" s="7">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C88" s="7">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D88" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E88" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F88" s="7">
         <v>49.1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B89" s="7">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C89" s="7">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="D89" s="7">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="E89" s="7">
         <v>23.2</v>
@@ -2582,38 +2893,38 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" s="7">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C90" s="7">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D90" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E90" s="7">
         <v>27.9</v>
       </c>
       <c r="F90" s="7">
-        <v>66.1</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B91" s="7">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="C91" s="7">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="D91" s="7">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="E91" s="7">
         <v>90.9</v>
@@ -2622,78 +2933,78 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B92" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C92" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D92" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E92" s="7">
         <v>17.2</v>
       </c>
       <c r="F92" s="7">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="B93" s="7">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C93" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D93" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E93" s="7">
         <v>1.6</v>
       </c>
       <c r="F93" s="7">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B94" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C94" s="7">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D94" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E94" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F94" s="7">
         <v>48.4</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B95" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C95" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D95" s="7">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E95" s="7">
         <v>39.6</v>
@@ -2702,38 +3013,38 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B96" s="7">
-        <v>0.468</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C96" s="7">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="D96" s="7">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="E96" s="7">
-        <v>64.1</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F96" s="7">
         <v>77.7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B97" s="7">
         <v>0.191</v>
       </c>
       <c r="C97" s="7">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D97" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E97" s="7">
         <v>13.6</v>
@@ -2742,18 +3053,18 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B98" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C98" s="7">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D98" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E98" s="7">
         <v>12.4</v>
@@ -2762,18 +3073,18 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B99" s="7">
-        <v>0.549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="C99" s="7">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="D99" s="7">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="E99" s="7">
         <v>92.7</v>
@@ -2782,38 +3093,38 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B100" s="7">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C100" s="7">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D100" s="7">
-        <v>725.0</v>
+        <v>725</v>
       </c>
       <c r="E100" s="7">
         <v>108.8</v>
       </c>
       <c r="F100" s="7">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B101" s="7">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C101" s="7">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D101" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E101" s="7">
         <v>6.2</v>
@@ -2822,18 +3133,18 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B102" s="7">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C102" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D102" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E102" s="7">
         <v>5.9</v>
@@ -2842,38 +3153,38 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B103" s="7">
         <v>0.121</v>
       </c>
       <c r="C103" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D103" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E103" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F103" s="7">
         <v>53.9</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B104" s="7">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C104" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D104" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E104" s="7">
         <v>5.9</v>
@@ -2882,38 +3193,38 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B105" s="7">
         <v>0.16</v>
       </c>
       <c r="C105" s="7">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D105" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E105" s="7">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F105" s="7">
         <v>43.9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B106" s="7">
         <v>0.312</v>
       </c>
       <c r="C106" s="7">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D106" s="7">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E106" s="7">
         <v>116.2</v>
@@ -2922,38 +3233,38 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B107" s="7">
-        <v>0.614</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C107" s="7">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D107" s="7">
-        <v>634.0</v>
+        <v>634</v>
       </c>
       <c r="E107" s="7">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="F107" s="7">
         <v>81.2</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B108" s="7">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="C108" s="7">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D108" s="7">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E108" s="7">
         <v>13.6</v>
@@ -2962,18 +3273,18 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B109" s="7">
         <v>0.312</v>
       </c>
       <c r="C109" s="7">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D109" s="7">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E109" s="7">
         <v>6.7</v>
@@ -2982,18 +3293,18 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B110" s="7">
-        <v>0.689</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="C110" s="7">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="D110" s="7">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="E110" s="7">
         <v>174.6</v>
@@ -3002,78 +3313,78 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B111" s="7">
         <v>0.217</v>
       </c>
       <c r="C111" s="7">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D111" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E111" s="7">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F111" s="7">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B112" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C112" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D112" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E112" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F112" s="7">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B113" s="7">
         <v>0.626</v>
       </c>
       <c r="C113" s="7">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="D113" s="7">
-        <v>602.0</v>
+        <v>602</v>
       </c>
       <c r="E113" s="7">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F113" s="7">
         <v>29.1</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B114" s="7">
         <v>0.38</v>
       </c>
       <c r="C114" s="7">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D114" s="7">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E114" s="7">
         <v>28.5</v>
@@ -3082,18 +3393,18 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B115" s="7">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C115" s="7">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="D115" s="7">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E115" s="7">
         <v>62.8</v>
@@ -3102,78 +3413,78 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B116" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C116" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D116" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E116" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F116" s="7">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B117" s="7">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="C117" s="7">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D117" s="7">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E117" s="7">
         <v>22.6</v>
       </c>
       <c r="F117" s="7">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B118" s="7">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C118" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D118" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E118" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F118" s="7">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B119" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C119" s="7">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="D119" s="7">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E119" s="7">
         <v>15.7</v>
@@ -3182,38 +3493,38 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B120" s="7">
         <v>0.156</v>
       </c>
       <c r="C120" s="7">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D120" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E120" s="7">
         <v>12.2</v>
       </c>
       <c r="F120" s="7">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B121" s="7">
-        <v>0.494</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C121" s="7">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="D121" s="7">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="E121" s="7">
         <v>31.7</v>
@@ -3222,58 +3533,58 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B122" s="7">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C122" s="7">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="D122" s="7">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="E122" s="7">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="F122" s="7">
         <v>82.5</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B123" s="7">
         <v>0.374</v>
       </c>
       <c r="C123" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D123" s="7">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="E123" s="7">
         <v>16.5</v>
       </c>
       <c r="F123" s="7">
-        <v>75.1</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B124" s="7">
-        <v>0.474</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C124" s="7">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D124" s="7">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="E124" s="7">
         <v>76.8</v>
@@ -3282,78 +3593,78 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B125" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C125" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D125" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E125" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F125" s="7">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B126" s="7">
         <v>0.497</v>
       </c>
       <c r="C126" s="7">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="D126" s="7">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="E126" s="7">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F126" s="7">
         <v>79.7</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B127" s="7">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C127" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D127" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E127" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F127" s="7">
         <v>57.5</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B128" s="7">
         <v>0.158</v>
       </c>
       <c r="C128" s="7">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D128" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E128" s="7">
         <v>23.6</v>
@@ -3362,18 +3673,18 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C129" s="7">
+        <v>103</v>
+      </c>
+      <c r="D129" s="7">
         <v>150</v>
-      </c>
-      <c r="B129" s="7">
-        <v>0.462</v>
-      </c>
-      <c r="C129" s="7">
-        <v>103.0</v>
-      </c>
-      <c r="D129" s="7">
-        <v>150.0</v>
       </c>
       <c r="E129" s="7">
         <v>88.8</v>
@@ -3382,38 +3693,38 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B130" s="7">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C130" s="7">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="D130" s="7">
-        <v>553.0</v>
+        <v>553</v>
       </c>
       <c r="E130" s="7">
         <v>202.4</v>
       </c>
       <c r="F130" s="7">
-        <v>40.2</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B131" s="7">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C131" s="7">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="D131" s="7">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="E131" s="7">
         <v>110.6</v>
@@ -3422,18 +3733,18 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B132" s="7">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C132" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D132" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E132" s="7">
         <v>5.9</v>
@@ -3442,58 +3753,58 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B133" s="7">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C133" s="7">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="D133" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E133" s="7">
         <v>8.1</v>
       </c>
       <c r="F133" s="7">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B134" s="7">
-        <v>0.546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C134" s="7">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="D134" s="7">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="E134" s="7">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F134" s="7">
         <v>24.3</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B135" s="7">
         <v>0.436</v>
       </c>
       <c r="C135" s="7">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="D135" s="7">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="E135" s="7">
         <v>61.7</v>
@@ -3502,18 +3813,18 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B136" s="7">
-        <v>0.546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C136" s="7">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="D136" s="7">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E136" s="7">
         <v>58.6</v>
@@ -3522,18 +3833,18 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B137" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C137" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D137" s="7">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E137" s="7">
         <v>74.5</v>
@@ -3542,38 +3853,38 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B138" s="7">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C138" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="D138" s="7">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E138" s="7">
         <v>54.8</v>
       </c>
       <c r="F138" s="7">
-        <v>69.6</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B139" s="7">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C139" s="7">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D139" s="7">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="E139" s="7">
         <v>57.4</v>
@@ -3582,18 +3893,18 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B140" s="7">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C140" s="7">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D140" s="7">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E140" s="7">
         <v>49.1</v>
@@ -3602,18 +3913,18 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B141" s="7">
         <v>0.436</v>
       </c>
       <c r="C141" s="7">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="D141" s="7">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="E141" s="7">
         <v>61.7</v>
@@ -3622,18 +3933,18 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B142" s="7">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C142" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D142" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E142" s="7">
         <v>13.4</v>
@@ -3642,18 +3953,18 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B143" s="7">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C143" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D143" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E143" s="7">
         <v>9.9</v>
@@ -3662,18 +3973,18 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B144" s="7">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C144" s="7">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D144" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E144" s="7">
         <v>10.7</v>
@@ -3682,18 +3993,18 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B145" s="7">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C145" s="7">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D145" s="7">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E145" s="7">
         <v>34.6</v>
@@ -3702,18 +4013,18 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B146" s="7">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C146" s="7">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D146" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E146" s="7">
         <v>23.4</v>
@@ -3722,18 +4033,18 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B147" s="7">
-        <v>0.383</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="C147" s="7">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="D147" s="7">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="E147" s="7">
         <v>26.3</v>
@@ -3742,18 +4053,18 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B148" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C148" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D148" s="7">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E148" s="7">
         <v>53.9</v>
@@ -3762,18 +4073,18 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B149" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C149" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D149" s="7">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E149" s="7">
         <v>53.9</v>
@@ -3782,78 +4093,78 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B150" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C150" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D150" s="7">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E150" s="7">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F150" s="7">
         <v>56.3</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B151" s="7">
         <v>0.439</v>
       </c>
       <c r="C151" s="7">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="D151" s="7">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E151" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F151" s="7">
         <v>23.1</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B152" s="7">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C152" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D152" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E152" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F152" s="7">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B153" s="7">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="C153" s="7">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="D153" s="7">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E153" s="7">
         <v>84.3</v>
@@ -3862,118 +4173,118 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B154" s="7">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C154" s="7">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D154" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E154" s="7">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F154" s="7">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B155" s="7">
-        <v>0.521</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="C155" s="7">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="D155" s="7">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="E155" s="7">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F155" s="7">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B156" s="7">
         <v>0.185</v>
       </c>
       <c r="C156" s="7">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D156" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E156" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="F156" s="7">
         <v>43.4</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B157" s="7">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C157" s="7">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D157" s="7">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E157" s="7">
         <v>57.4</v>
       </c>
       <c r="F157" s="7">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B158" s="7">
         <v>0.65</v>
       </c>
       <c r="C158" s="7">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E158" s="7">
         <v>118.2</v>
       </c>
       <c r="F158" s="7">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B159" s="7">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C159" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D159" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E159" s="7">
         <v>3.8</v>
@@ -3982,18 +4293,18 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B160" s="7">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C160" s="7">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D160" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E160" s="7">
         <v>20.2</v>
@@ -4002,18 +4313,18 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B161" s="7">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C161" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D161" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E161" s="7">
         <v>3.8</v>
@@ -4022,18 +4333,18 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B162" s="7">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="C162" s="7">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D162" s="7">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="E162" s="7">
         <v>48.4</v>
@@ -4042,38 +4353,38 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B163" s="7">
         <v>0.499</v>
       </c>
       <c r="C163" s="7">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D163" s="7">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="E163" s="7">
         <v>103.9</v>
       </c>
       <c r="F163" s="7">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B164" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C164" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D164" s="7">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E164" s="7">
         <v>45.5</v>
@@ -4082,38 +4393,38 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B165" s="7">
         <v>0.499</v>
       </c>
       <c r="C165" s="7">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D165" s="7">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="E165" s="7">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="F165" s="7">
         <v>71.2</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B166" s="7">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C166" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D166" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E166" s="7">
         <v>8.4</v>
@@ -4122,18 +4433,18 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B167" s="7">
-        <v>0.386</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C167" s="7">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D167" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E167" s="7">
         <v>14.8</v>
@@ -4142,38 +4453,38 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B168" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C168" s="7">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="D168" s="7">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="E168" s="7">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F168" s="7">
         <v>24.3</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B169" s="7">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="C169" s="7">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D169" s="7">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="E169" s="7">
         <v>46.1</v>
@@ -4182,38 +4493,38 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B170" s="7">
-        <v>0.566</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C170" s="7">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="D170" s="7">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="E170" s="7">
-        <v>70.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F170" s="7">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B171" s="7">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C171" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D171" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E171" s="7">
         <v>5.7</v>
@@ -4222,18 +4533,18 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B172" s="7">
         <v>0.04</v>
       </c>
       <c r="C172" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D172" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E172" s="7">
         <v>2.9</v>
@@ -4242,18 +4553,18 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B173" s="7">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C173" s="7">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="D173" s="7">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E173" s="7">
         <v>39.4</v>
@@ -4262,18 +4573,18 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B174" s="7">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C174" s="7">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D174" s="7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E174" s="7">
         <v>38.1</v>
@@ -4282,38 +4593,38 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B175" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C175" s="7">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D175" s="7">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="E175" s="7">
         <v>118.6</v>
       </c>
       <c r="F175" s="7">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B176" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C176" s="7">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D176" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E176" s="7">
         <v>44.6</v>
@@ -4322,18 +4633,18 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B177" s="7">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="C177" s="7">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D177" s="7">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E177" s="7">
         <v>46.6</v>
@@ -4342,38 +4653,38 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B178" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C178" s="7">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="D178" s="7">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="E178" s="7">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F178" s="7">
-        <v>81.1</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B179" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C179" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D179" s="7">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="E179" s="7">
         <v>15.2</v>
@@ -4382,18 +4693,18 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B180" s="7">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C180" s="7">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D180" s="7">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="E180" s="7">
         <v>31.5</v>
@@ -4402,18 +4713,18 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B181" s="7">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="C181" s="7">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="D181" s="7">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E181" s="7">
         <v>6.8</v>
@@ -4422,18 +4733,18 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B182" s="7">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C182" s="7">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D182" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E182" s="7">
         <v>27.6</v>
@@ -4442,58 +4753,58 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B183" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C183" s="7">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="D183" s="7">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E183" s="7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F183" s="7">
         <v>47.3</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B184" s="7">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C184" s="7">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D184" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E184" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F184" s="7">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B185" s="7">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C185" s="7">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="D185" s="7">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="E185" s="7">
         <v>111.9</v>
@@ -4502,18 +4813,18 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B186" s="7">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="C186" s="7">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D186" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E186" s="7">
         <v>24.1</v>
@@ -4522,18 +4833,18 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B187" s="7">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="C187" s="7">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D187" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E187" s="7">
         <v>29.7</v>
@@ -4542,18 +4853,18 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B188" s="7">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="C188" s="7">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D188" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E188" s="7">
         <v>56.1</v>
@@ -4562,38 +4873,38 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B189" s="7">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C189" s="7">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D189" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E189" s="7">
         <v>22.6</v>
       </c>
       <c r="F189" s="7">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B190" s="7">
-        <v>0.287</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C190" s="7">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D190" s="7">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E190" s="7">
         <v>17.7</v>
@@ -4602,18 +4913,18 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B191" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C191" s="7">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D191" s="7">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E191" s="7">
         <v>43.1</v>
@@ -4622,38 +4933,38 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B192" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C192" s="7">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D192" s="7">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E192" s="7">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F192" s="7">
         <v>51.4</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B193" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C193" s="7">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="D193" s="7">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E193" s="7">
         <v>38.6</v>
@@ -4662,18 +4973,18 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B194" s="7">
-        <v>0.767</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C194" s="7">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="D194" s="7">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="E194" s="7">
         <v>61.5</v>
@@ -4682,18 +4993,18 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B195" s="7">
-        <v>0.526</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="C195" s="7">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="D195" s="7">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="E195" s="7">
         <v>90.4</v>
@@ -4702,18 +5013,18 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B196" s="7">
         <v>0.54</v>
       </c>
       <c r="C196" s="7">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="D196" s="7">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="E196" s="7">
         <v>109.7</v>
@@ -4722,7 +5033,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="12"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -4730,7 +5041,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -4738,7 +5049,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -4746,7 +5057,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -4754,7 +5065,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -4762,7 +5073,7 @@
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -4770,7 +5081,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -4778,7 +5089,7 @@
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -4786,7 +5097,7 @@
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -4794,7 +5105,7 @@
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -4802,7 +5113,7 @@
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -4810,7 +5121,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="13"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -4818,7 +5129,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -4826,7 +5137,7 @@
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -4834,7 +5145,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="14"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -4842,7 +5153,7 @@
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="16"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -4850,7 +5161,7 @@
       <c r="E235" s="17"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="16"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -4858,7 +5169,7 @@
       <c r="E236" s="17"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -4866,7 +5177,7 @@
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -4874,7 +5185,7 @@
       <c r="E238" s="17"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A239" s="14"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -4882,7 +5193,7 @@
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -4890,7 +5201,7 @@
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -4898,7 +5209,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -4906,7 +5217,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -4914,7 +5225,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -4922,7 +5233,7 @@
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -4930,7 +5241,7 @@
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -4938,7 +5249,7 @@
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -4946,7 +5257,7 @@
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -4955,21 +5266,22 @@
       <c r="F248" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4977,7 +5289,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -4987,38 +5299,38 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <v>52.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="7">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7">
         <v>27.4</v>
@@ -5027,27 +5339,27 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="7">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F5" s="7">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -5058,7 +5370,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>553.0</v>
+        <v>553</v>
       </c>
       <c r="E6" s="7">
         <v>101.8</v>
@@ -5067,7 +5379,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5075,18 +5387,18 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="E8" s="7">
         <v>48.8</v>
@@ -5095,7 +5407,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5103,9 +5415,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5113,18 +5425,18 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="E11" s="7">
         <v>47.7</v>
@@ -5133,9 +5445,9 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7">
         <v>0.315</v>
@@ -5144,7 +5456,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7">
         <v>23.1</v>
@@ -5153,18 +5465,18 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7">
         <v>26.6</v>
@@ -5173,9 +5485,9 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7">
         <v>0.39</v>
@@ -5184,7 +5496,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7">
         <v>64.3</v>
@@ -5193,9 +5505,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7">
         <v>0.52</v>
@@ -5204,36 +5516,36 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E15" s="7">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F15" s="7">
         <v>28.3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>551.0</v>
+        <v>551</v>
       </c>
       <c r="E16" s="7">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7">
-        <v>64.9</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5241,18 +5553,18 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7">
-        <v>0.555</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="E18" s="7">
         <v>91.4</v>
@@ -5261,27 +5573,27 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="E19" s="7">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7">
         <v>53.4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5289,18 +5601,18 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7">
         <v>22.4</v>
@@ -5309,7 +5621,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5317,9 +5629,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7">
         <v>0.443</v>
@@ -5328,7 +5640,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="E23" s="7">
         <v>44.7</v>
@@ -5338,6 +5650,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GII.xlsx
+++ b/GII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamakarevich/UdacityProjects/suicide_rates_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01554EE5-8AEF-A142-85DD-9BE2CFC98F60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE25BCF3-F037-B94D-AC50-3908A22A20F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="218">
   <si>
     <t>Country</t>
   </si>
@@ -546,9 +546,6 @@
   </si>
   <si>
     <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>1 360</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -1104,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="7">
         <v>0.17899999999999999</v>
@@ -2055,7 +2052,7 @@
     </row>
     <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48" s="7">
         <v>0.66300000000000003</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" s="7">
         <v>0.47</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B93" s="7">
         <v>6.7000000000000004E-2</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="146" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" s="7">
         <v>0.27100000000000002</v>
@@ -4263,8 +4260,8 @@
       <c r="C158" s="7">
         <v>151</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>175</v>
+      <c r="D158" s="7">
+        <v>1360</v>
       </c>
       <c r="E158" s="7">
         <v>118.2</v>
@@ -4275,7 +4272,7 @@
     </row>
     <row r="159" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" s="7">
         <v>6.8000000000000005E-2</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="160" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160" s="7">
         <v>0.17899999999999999</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="161" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" s="7">
         <v>5.2999999999999999E-2</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="162" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162" s="7">
         <v>0.46700000000000003</v>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="163" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163" s="7">
         <v>0.499</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="164" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" s="7">
         <v>0.39400000000000002</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="165" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B165" s="7">
         <v>0.499</v>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="166" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B166" s="7">
         <v>8.1000000000000003E-2</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="167" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B167" s="7">
         <v>0.38600000000000001</v>
@@ -4455,7 +4452,7 @@
     </row>
     <row r="168" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168" s="7">
         <v>0.57499999999999996</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="169" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169" s="7">
         <v>0.44800000000000001</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="170" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170" s="7">
         <v>0.56599999999999995</v>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="171" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B171" s="7">
         <v>4.8000000000000001E-2</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="172" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172" s="7">
         <v>0.04</v>
@@ -4555,7 +4552,7 @@
     </row>
     <row r="173" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B173" s="7">
         <v>0.55400000000000005</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="174" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B174" s="7">
         <v>0.32200000000000001</v>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="175" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B175" s="7">
         <v>0.54400000000000004</v>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="176" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176" s="7">
         <v>0.36599999999999999</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="177" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B177" s="7">
         <v>0.44800000000000001</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="178" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178" s="7">
         <v>0.55600000000000005</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="179" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B179" s="7">
         <v>0.65900000000000003</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="180" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B180" s="7">
         <v>0.32400000000000001</v>
@@ -4715,7 +4712,7 @@
     </row>
     <row r="181" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B181" s="7">
         <v>0.28899999999999998</v>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="182" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B182" s="7">
         <v>0.32800000000000001</v>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="183" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183" s="7">
         <v>0.27800000000000002</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="184" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184" s="7">
         <v>0.65900000000000003</v>
@@ -4795,7 +4792,7 @@
     </row>
     <row r="185" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B185" s="7">
         <v>0.52200000000000002</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="186" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B186" s="7">
         <v>0.28399999999999997</v>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B187" s="7">
         <v>0.23200000000000001</v>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="188" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B188" s="7">
         <v>0.28399999999999997</v>
@@ -4875,7 +4872,7 @@
     </row>
     <row r="189" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B189" s="7">
         <v>0.20300000000000001</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="190" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B190" s="7">
         <v>0.28699999999999998</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="191" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B191" s="7">
         <v>0.36599999999999999</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="192" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B192" s="7">
         <v>0.46100000000000002</v>
@@ -4955,7 +4952,7 @@
     </row>
     <row r="193" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B193" s="7">
         <v>0.33700000000000002</v>
@@ -4975,7 +4972,7 @@
     </row>
     <row r="194" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B194" s="7">
         <v>0.76700000000000002</v>
@@ -4995,7 +4992,7 @@
     </row>
     <row r="195" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B195" s="7">
         <v>0.52600000000000002</v>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="196" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B196" s="7">
         <v>0.54</v>
